--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705405.7863679219</v>
+        <v>-707768.1024323464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6264945.561609692</v>
+        <v>6632862.567171204</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14003981.96551121</v>
+        <v>13984439.40603276</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>255.187598432807</v>
+        <v>129.9240809094847</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>257.8172516011276</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>306.6498215099272</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>136.9481251131645</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>80.97347500494054</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>158.9982176879904</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>332.1480703508211</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.82579829756096</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>275.0992346450741</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>175.9378531220001</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21.36081100544237</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>43.60620160013929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.1635295042647</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0316348532064</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>305.9746219792901</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>84.36670419640059</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.4798176775456</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T11" t="n">
-        <v>208.7765976615386</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0839646948822</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5933229417834</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>95.33225267692309</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>29.13775285929382</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>139.1740810698718</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>193.1102177759988</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.826237724302</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2389945905412</v>
+        <v>101.9760618993576</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.96499814878285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7321536188797</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759522</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412519</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396685</v>
+        <v>8.915218264397224</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>1.391225266356472</v>
       </c>
       <c r="D16" t="n">
-        <v>1.062794560160607</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T16" t="n">
         <v>219.5722280944081</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1859,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H17" t="n">
-        <v>294.7321536188791</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I17" t="n">
-        <v>42.04518470759564</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H18" t="n">
-        <v>89.65963851412519</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I18" t="n">
-        <v>8.915218264396685</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T19" t="n">
-        <v>46.77938050235826</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>198.8837368360265</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,10 +2096,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H20" t="n">
-        <v>294.7321536188797</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I20" t="n">
-        <v>42.04518470759564</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H21" t="n">
-        <v>89.65963851412519</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I21" t="n">
-        <v>8.915218264396685</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>113.992914610827</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.51626366671985</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.8639731922165</v>
@@ -2293,7 +2293,7 @@
         <v>219.5722280944081</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>201.539531717238</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,10 +2333,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H23" t="n">
-        <v>294.7321536188797</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I23" t="n">
-        <v>42.04518470759564</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H24" t="n">
-        <v>89.65963851412519</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I24" t="n">
-        <v>8.915218264396685</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>85.00726533110578</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>6.026217966249482</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T25" t="n">
         <v>219.5722280944081</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>201.7615850795921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>60.46549070080437</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314417</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.406813219207</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056127</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572899</v>
+        <v>97.77987829572928</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912466</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3755,10 +3755,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633445</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797641</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433849</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572805</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124545</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052352</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179982</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.609516733502</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.560952380476</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.598435440065</v>
+        <v>803.8665920539961</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.332736833314</v>
+        <v>445.6008934472456</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>314.3644480841297</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>314.3644480841297</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1937.560952380476</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1937.560952380476</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.560952380476</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.560952380476</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>646.3375953125549</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1739.654191907093</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C5" t="n">
-        <v>1370.691674966682</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1127.626707938435</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1127.626707938435</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>716.6408031488274</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.654191907093</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.375564375168</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.375564375168</v>
+        <v>1039.68309604771</v>
       </c>
       <c r="D8" t="n">
-        <v>796.1098657684179</v>
+        <v>1039.68309604771</v>
       </c>
       <c r="E8" t="n">
-        <v>796.1098657684179</v>
+        <v>653.8948434494655</v>
       </c>
       <c r="F8" t="n">
-        <v>385.1239609788103</v>
+        <v>646.949342700262</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>228.9855345984489</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.97540443929</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.97540443929</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092203</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092203</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.98965010333345</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2430.060434710129</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C11" t="n">
-        <v>2061.097917769717</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D11" t="n">
-        <v>1702.832219162967</v>
+        <v>1647.618329116776</v>
       </c>
       <c r="E11" t="n">
-        <v>1317.043966564722</v>
+        <v>1261.830076518532</v>
       </c>
       <c r="F11" t="n">
-        <v>906.0580617751148</v>
+        <v>850.8441717289248</v>
       </c>
       <c r="G11" t="n">
-        <v>489.8644912163205</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H11" t="n">
-        <v>180.7992164897648</v>
+        <v>138.0502069051133</v>
       </c>
       <c r="I11" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J11" t="n">
-        <v>358.604968958362</v>
+        <v>450.8445436698804</v>
       </c>
       <c r="K11" t="n">
-        <v>873.5555348492708</v>
+        <v>1104.038321410276</v>
       </c>
       <c r="L11" t="n">
-        <v>1564.673874423016</v>
+        <v>1553.174987179355</v>
       </c>
       <c r="M11" t="n">
-        <v>2350.28273691944</v>
+        <v>2084.595504662269</v>
       </c>
       <c r="N11" t="n">
-        <v>3133.971574594022</v>
+        <v>2629.228770079935</v>
       </c>
       <c r="O11" t="n">
-        <v>3828.799083380405</v>
+        <v>3486.889521217948</v>
       </c>
       <c r="P11" t="n">
-        <v>4384.14390381949</v>
+        <v>4198.51547855725</v>
       </c>
       <c r="Q11" t="n">
-        <v>4723.962976304608</v>
+        <v>4655.695176366788</v>
       </c>
       <c r="R11" t="n">
         <v>4779.016168104373</v>
       </c>
       <c r="S11" t="n">
-        <v>4643.177968430085</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T11" t="n">
-        <v>4432.292516246713</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U11" t="n">
-        <v>4178.672349888246</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V11" t="n">
-        <v>3847.609462544675</v>
+        <v>3877.820130235066</v>
       </c>
       <c r="W11" t="n">
-        <v>3494.840807274561</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.375049013481</v>
+        <v>3151.585716703872</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.235717037669</v>
+        <v>2761.44638472806</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4300060688951</v>
+        <v>960.6800021268577</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9769767877681</v>
+        <v>786.2269728457308</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0425671265168</v>
+        <v>637.2925631844796</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8051121210614</v>
+        <v>478.055108179024</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2705541479464</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3076016814985</v>
+        <v>195.1508857646348</v>
       </c>
       <c r="H12" t="n">
-        <v>125.0123969573337</v>
+        <v>104.5855943362255</v>
       </c>
       <c r="I12" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J12" t="n">
-        <v>133.7124957100086</v>
+        <v>188.6497545038421</v>
       </c>
       <c r="K12" t="n">
-        <v>538.8618612230343</v>
+        <v>425.875060930915</v>
       </c>
       <c r="L12" t="n">
-        <v>979.0080236847016</v>
+        <v>791.1763019983989</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.320036111253</v>
+        <v>1236.822488350012</v>
       </c>
       <c r="N12" t="n">
-        <v>2072.485075367504</v>
+        <v>1708.672248108487</v>
       </c>
       <c r="O12" t="n">
-        <v>2343.566363851998</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P12" t="n">
-        <v>2541.799930566079</v>
+        <v>2427.373847244437</v>
       </c>
       <c r="Q12" t="n">
-        <v>2624.394623756942</v>
+        <v>2584.194155770509</v>
       </c>
       <c r="R12" t="n">
-        <v>2624.394623756942</v>
+        <v>2584.194155770509</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.814743888385</v>
+        <v>2454.634340755505</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.753917852022</v>
+        <v>2261.964881803066</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.646607019394</v>
+        <v>2033.896603077357</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.494498787651</v>
+        <v>1798.744494845614</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.25714205945</v>
+        <v>1544.507138117413</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.405641853917</v>
+        <v>1336.65563791188</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.645343088963</v>
+        <v>1128.895339146926</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390.3833644423909</v>
+        <v>873.2940030885828</v>
       </c>
       <c r="C13" t="n">
-        <v>390.3833644423909</v>
+        <v>704.3578201606759</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3833644423909</v>
+        <v>704.3578201606759</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4702708599978</v>
+        <v>556.4447265782828</v>
       </c>
       <c r="F13" t="n">
-        <v>95.58032336208746</v>
+        <v>409.5547790803724</v>
       </c>
       <c r="G13" t="n">
-        <v>95.58032336208746</v>
+        <v>241.8464391883683</v>
       </c>
       <c r="H13" t="n">
         <v>95.58032336208746</v>
@@ -5197,52 +5197,52 @@
         <v>95.58032336208746</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8557468869999</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K13" t="n">
-        <v>252.5782609373993</v>
+        <v>343.682144630511</v>
       </c>
       <c r="L13" t="n">
-        <v>495.8589987313029</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M13" t="n">
-        <v>762.7535493530397</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N13" t="n">
-        <v>1028.736560521497</v>
+        <v>1343.334575393459</v>
       </c>
       <c r="O13" t="n">
-        <v>1258.398626418943</v>
+        <v>1641.901792025959</v>
       </c>
       <c r="P13" t="n">
-        <v>1431.393516913218</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q13" t="n">
-        <v>1467.731131905805</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="R13" t="n">
-        <v>1467.731131905805</v>
+        <v>1860.937681577987</v>
       </c>
       <c r="S13" t="n">
-        <v>1467.731131905805</v>
+        <v>1669.155890474738</v>
       </c>
       <c r="T13" t="n">
-        <v>1467.731131905805</v>
+        <v>1447.365761086447</v>
       </c>
       <c r="U13" t="n">
-        <v>1178.600834339602</v>
+        <v>1344.359637955783</v>
       </c>
       <c r="V13" t="n">
-        <v>923.9163461337151</v>
+        <v>1344.359637955783</v>
       </c>
       <c r="W13" t="n">
-        <v>634.4991760967546</v>
+        <v>1054.942467918823</v>
       </c>
       <c r="X13" t="n">
-        <v>406.5096251987372</v>
+        <v>1054.942467918823</v>
       </c>
       <c r="Y13" t="n">
-        <v>390.3833644423909</v>
+        <v>1054.942467918823</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.846544663937</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.884027723526</v>
       </c>
       <c r="D14" t="n">
         <v>1647.618329116776</v>
@@ -5264,31 +5264,31 @@
         <v>1261.830076518532</v>
       </c>
       <c r="F14" t="n">
-        <v>850.8441717289245</v>
+        <v>850.8441717289247</v>
       </c>
       <c r="G14" t="n">
-        <v>435.7594529847894</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H14" t="n">
-        <v>138.0502069051129</v>
+        <v>138.0502069051133</v>
       </c>
       <c r="I14" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J14" t="n">
-        <v>450.8445436698803</v>
+        <v>450.8445436698804</v>
       </c>
       <c r="K14" t="n">
-        <v>1104.038321410276</v>
+        <v>783.1343629648231</v>
       </c>
       <c r="L14" t="n">
-        <v>1553.174987179355</v>
+        <v>1232.271028733902</v>
       </c>
       <c r="M14" t="n">
-        <v>2084.595504662268</v>
+        <v>2064.317589044852</v>
       </c>
       <c r="N14" t="n">
-        <v>2629.228770079934</v>
+        <v>2608.950854462517</v>
       </c>
       <c r="O14" t="n">
         <v>3486.889521217948</v>
@@ -5303,25 +5303,25 @@
         <v>4779.016168104373</v>
       </c>
       <c r="S14" t="n">
-        <v>4668.445929156633</v>
+        <v>4668.445929156632</v>
       </c>
       <c r="T14" t="n">
-        <v>4462.414475791931</v>
+        <v>4462.41447579193</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.883017578636</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.820130235065</v>
       </c>
       <c r="W14" t="n">
-        <v>3525.051474964952</v>
+        <v>3525.051474964951</v>
       </c>
       <c r="X14" t="n">
-        <v>3151.585716703872</v>
+        <v>3151.585716703871</v>
       </c>
       <c r="Y14" t="n">
-        <v>2761.44638472806</v>
+        <v>2761.446384728059</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268584</v>
       </c>
       <c r="C15" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457314</v>
       </c>
       <c r="D15" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844802</v>
       </c>
       <c r="E15" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790247</v>
       </c>
       <c r="F15" t="n">
-        <v>331.5205502059092</v>
+        <v>331.5205502059097</v>
       </c>
       <c r="G15" t="n">
-        <v>195.1508857646348</v>
+        <v>195.1508857646353</v>
       </c>
       <c r="H15" t="n">
-        <v>104.5855943362255</v>
+        <v>104.5855943362261</v>
       </c>
       <c r="I15" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J15" t="n">
-        <v>188.649754503842</v>
+        <v>188.6497545038421</v>
       </c>
       <c r="K15" t="n">
         <v>425.8750609309151</v>
       </c>
       <c r="L15" t="n">
-        <v>791.1763019983991</v>
+        <v>791.1763019983993</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.822488350012</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N15" t="n">
         <v>1708.672248108487</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P15" t="n">
-        <v>2427.373847244437</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q15" t="n">
         <v>2584.194155770509</v>
@@ -5391,7 +5391,7 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V15" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W15" t="n">
         <v>1544.507138117413</v>
@@ -5400,7 +5400,7 @@
         <v>1336.65563791188</v>
       </c>
       <c r="Y15" t="n">
-        <v>1128.895339146926</v>
+        <v>1128.895339146927</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.5900361487425</v>
+        <v>393.3683566475287</v>
       </c>
       <c r="C16" t="n">
-        <v>96.65385322083554</v>
+        <v>391.963078600704</v>
       </c>
       <c r="D16" t="n">
-        <v>95.58032336208746</v>
+        <v>241.8464391883683</v>
       </c>
       <c r="E16" t="n">
-        <v>95.58032336208746</v>
+        <v>241.8464391883683</v>
       </c>
       <c r="F16" t="n">
-        <v>95.58032336208746</v>
+        <v>241.8464391883683</v>
       </c>
       <c r="G16" t="n">
-        <v>95.58032336208746</v>
+        <v>241.8464391883683</v>
       </c>
       <c r="H16" t="n">
         <v>95.58032336208746</v>
@@ -5437,13 +5437,13 @@
         <v>140.3216175627468</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6821446305109</v>
+        <v>343.682144630511</v>
       </c>
       <c r="L16" t="n">
-        <v>659.440039301252</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M16" t="n">
-        <v>1002.751589802364</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N16" t="n">
         <v>1343.334575393459</v>
@@ -5452,34 +5452,34 @@
         <v>1641.901792025959</v>
       </c>
       <c r="P16" t="n">
-        <v>1873.856942706697</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q16" t="n">
-        <v>1951.01558570421</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="R16" t="n">
-        <v>1951.01558570421</v>
+        <v>1860.937681577987</v>
       </c>
       <c r="S16" t="n">
-        <v>1951.01558570421</v>
+        <v>1669.155890474738</v>
       </c>
       <c r="T16" t="n">
-        <v>1729.225456315919</v>
+        <v>1447.365761086447</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.122289263377</v>
+        <v>1158.262594033906</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.43780105749</v>
+        <v>903.5781058280194</v>
       </c>
       <c r="W16" t="n">
-        <v>896.0206310205297</v>
+        <v>614.1609357910588</v>
       </c>
       <c r="X16" t="n">
-        <v>668.0310801225123</v>
+        <v>614.1609357910588</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.2385009789822</v>
+        <v>393.3683566475287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D17" t="n">
         <v>1647.618329116776</v>
@@ -5501,10 +5501,10 @@
         <v>1261.830076518532</v>
       </c>
       <c r="F17" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289248</v>
       </c>
       <c r="G17" t="n">
-        <v>435.7594529847892</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H17" t="n">
         <v>138.0502069051133</v>
@@ -5513,22 +5513,22 @@
         <v>95.58032336208746</v>
       </c>
       <c r="J17" t="n">
-        <v>283.4388946495272</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K17" t="n">
-        <v>615.72871394447</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L17" t="n">
-        <v>1248.737035753497</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M17" t="n">
-        <v>2225.175951394315</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N17" t="n">
-        <v>3202.782671979845</v>
+        <v>3202.782671979844</v>
       </c>
       <c r="O17" t="n">
-        <v>4080.721338735275</v>
+        <v>4080.721338735274</v>
       </c>
       <c r="P17" t="n">
         <v>4473.766574984809</v>
@@ -5540,25 +5540,25 @@
         <v>4779.016168104373</v>
       </c>
       <c r="S17" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T17" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235066</v>
       </c>
       <c r="W17" t="n">
-        <v>3525.051474964951</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X17" t="n">
-        <v>3151.585716703871</v>
+        <v>3151.585716703872</v>
       </c>
       <c r="Y17" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.44638472806</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268577</v>
       </c>
       <c r="C18" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457308</v>
       </c>
       <c r="D18" t="n">
         <v>637.2925631844796</v>
       </c>
       <c r="E18" t="n">
-        <v>478.0551081790242</v>
+        <v>478.055108179024</v>
       </c>
       <c r="F18" t="n">
-        <v>331.5205502059092</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G18" t="n">
         <v>195.1508857646348</v>
@@ -5589,16 +5589,16 @@
         <v>104.5855943362255</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208747</v>
       </c>
       <c r="J18" t="n">
-        <v>188.649754503842</v>
+        <v>188.6497545038417</v>
       </c>
       <c r="K18" t="n">
-        <v>425.875060930915</v>
+        <v>425.8750609309145</v>
       </c>
       <c r="L18" t="n">
-        <v>791.176301998399</v>
+        <v>791.1763019983988</v>
       </c>
       <c r="M18" t="n">
         <v>1236.822488350012</v>
@@ -5607,7 +5607,7 @@
         <v>1708.672248108487</v>
       </c>
       <c r="O18" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P18" t="n">
         <v>2427.373847244437</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>729.2314330922446</v>
+        <v>508.2737975372042</v>
       </c>
       <c r="C19" t="n">
-        <v>560.2952501643377</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="D19" t="n">
-        <v>410.178610752002</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="E19" t="n">
-        <v>410.178610752002</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2886632540917</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="G19" t="n">
-        <v>95.58032336208746</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="H19" t="n">
-        <v>95.58032336208746</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="I19" t="n">
         <v>95.58032336208746</v>
@@ -5674,49 +5674,49 @@
         <v>140.3216175627468</v>
       </c>
       <c r="K19" t="n">
-        <v>343.6821446305109</v>
+        <v>343.682144630511</v>
       </c>
       <c r="L19" t="n">
-        <v>659.440039301252</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M19" t="n">
-        <v>1002.751589802364</v>
+        <v>1002.751589802363</v>
       </c>
       <c r="N19" t="n">
-        <v>1343.334575393459</v>
+        <v>1343.334575393458</v>
       </c>
       <c r="O19" t="n">
-        <v>1641.901792025959</v>
+        <v>1641.901792025958</v>
       </c>
       <c r="P19" t="n">
-        <v>1873.856942706698</v>
+        <v>1873.856942706697</v>
       </c>
       <c r="Q19" t="n">
-        <v>1951.015585704211</v>
+        <v>1951.01558570421</v>
       </c>
       <c r="R19" t="n">
-        <v>1951.015585704211</v>
+        <v>1860.937681577986</v>
       </c>
       <c r="S19" t="n">
-        <v>1951.015585704211</v>
+        <v>1669.155890474737</v>
       </c>
       <c r="T19" t="n">
-        <v>1903.763686206879</v>
+        <v>1447.365761086446</v>
       </c>
       <c r="U19" t="n">
-        <v>1903.763686206879</v>
+        <v>1246.473097615712</v>
       </c>
       <c r="V19" t="n">
-        <v>1649.079198000992</v>
+        <v>1246.473097615712</v>
       </c>
       <c r="W19" t="n">
-        <v>1359.662027964032</v>
+        <v>957.0559275787517</v>
       </c>
       <c r="X19" t="n">
-        <v>1131.672477066014</v>
+        <v>729.0663766807344</v>
       </c>
       <c r="Y19" t="n">
-        <v>910.8798979224844</v>
+        <v>508.2737975372042</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1261.830076518533</v>
       </c>
       <c r="F20" t="n">
-        <v>850.8441717289248</v>
+        <v>850.8441717289252</v>
       </c>
       <c r="G20" t="n">
-        <v>435.7594529847898</v>
+        <v>435.7594529847902</v>
       </c>
       <c r="H20" t="n">
-        <v>138.0502069051133</v>
+        <v>138.0502069051136</v>
       </c>
       <c r="I20" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J20" t="n">
-        <v>283.4388946495272</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K20" t="n">
-        <v>936.632672389923</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L20" t="n">
-        <v>1799.253940563948</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M20" t="n">
-        <v>2716.560864922529</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N20" t="n">
-        <v>3261.194130340195</v>
+        <v>3432.395618344844</v>
       </c>
       <c r="O20" t="n">
-        <v>3762.140617645507</v>
+        <v>4080.721338735274</v>
       </c>
       <c r="P20" t="n">
         <v>4473.766574984809</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.6800021268582</v>
+        <v>960.6800021268579</v>
       </c>
       <c r="C21" t="n">
-        <v>786.2269728457312</v>
+        <v>786.2269728457309</v>
       </c>
       <c r="D21" t="n">
-        <v>637.2925631844798</v>
+        <v>637.2925631844796</v>
       </c>
       <c r="E21" t="n">
-        <v>478.0551081790243</v>
+        <v>478.0551081790242</v>
       </c>
       <c r="F21" t="n">
-        <v>331.5205502059093</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G21" t="n">
-        <v>195.1508857646349</v>
+        <v>195.1508857646348</v>
       </c>
       <c r="H21" t="n">
-        <v>104.5855943362258</v>
+        <v>104.5855943362255</v>
       </c>
       <c r="I21" t="n">
         <v>95.58032336208746</v>
@@ -5832,22 +5832,22 @@
         <v>188.6497545038421</v>
       </c>
       <c r="K21" t="n">
-        <v>425.8750609309151</v>
+        <v>425.8750609309143</v>
       </c>
       <c r="L21" t="n">
-        <v>791.1763019983991</v>
+        <v>791.1763019983985</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.822488350013</v>
+        <v>1236.822488350012</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.672248108488</v>
+        <v>1708.672248108486</v>
       </c>
       <c r="O21" t="n">
-        <v>2118.102799755744</v>
+        <v>2118.102799755743</v>
       </c>
       <c r="P21" t="n">
-        <v>2427.373847244438</v>
+        <v>2427.373847244437</v>
       </c>
       <c r="Q21" t="n">
         <v>2584.194155770509</v>
@@ -5865,7 +5865,7 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V21" t="n">
-        <v>1798.744494845615</v>
+        <v>1798.744494845614</v>
       </c>
       <c r="W21" t="n">
         <v>1544.507138117413</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>454.4819728020519</v>
+        <v>340.9845923654097</v>
       </c>
       <c r="C22" t="n">
-        <v>454.4819728020519</v>
+        <v>340.9845923654097</v>
       </c>
       <c r="D22" t="n">
-        <v>454.4819728020519</v>
+        <v>340.9845923654097</v>
       </c>
       <c r="E22" t="n">
-        <v>454.4819728020519</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="F22" t="n">
-        <v>339.3376146092974</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="G22" t="n">
-        <v>339.3376146092974</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="H22" t="n">
         <v>193.0714987830166</v>
@@ -5911,13 +5911,13 @@
         <v>140.3216175627468</v>
       </c>
       <c r="K22" t="n">
-        <v>343.6821446305109</v>
+        <v>343.682144630511</v>
       </c>
       <c r="L22" t="n">
-        <v>659.440039301252</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M22" t="n">
-        <v>1002.751589802364</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N22" t="n">
         <v>1343.334575393459</v>
@@ -5926,34 +5926,34 @@
         <v>1641.901792025959</v>
       </c>
       <c r="P22" t="n">
-        <v>1873.856942706698</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q22" t="n">
         <v>1951.015585704211</v>
       </c>
       <c r="R22" t="n">
-        <v>1860.937681577987</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="S22" t="n">
-        <v>1669.155890474738</v>
+        <v>1759.233794600962</v>
       </c>
       <c r="T22" t="n">
-        <v>1447.365761086447</v>
+        <v>1537.443665212671</v>
       </c>
       <c r="U22" t="n">
-        <v>1447.365761086447</v>
+        <v>1333.868380649805</v>
       </c>
       <c r="V22" t="n">
-        <v>1192.68127288056</v>
+        <v>1079.183892443918</v>
       </c>
       <c r="W22" t="n">
-        <v>903.2641028435994</v>
+        <v>789.7667224069571</v>
       </c>
       <c r="X22" t="n">
-        <v>675.2745519455821</v>
+        <v>561.7771715089398</v>
       </c>
       <c r="Y22" t="n">
-        <v>454.4819728020519</v>
+        <v>340.9845923654097</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1261.830076518532</v>
       </c>
       <c r="F23" t="n">
-        <v>850.8441717289249</v>
+        <v>850.8441717289248</v>
       </c>
       <c r="G23" t="n">
-        <v>435.7594529847898</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H23" t="n">
-        <v>138.0502069051134</v>
+        <v>138.0502069051133</v>
       </c>
       <c r="I23" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J23" t="n">
-        <v>283.4388946495272</v>
+        <v>450.8445436698804</v>
       </c>
       <c r="K23" t="n">
-        <v>615.72871394447</v>
+        <v>1104.038321410276</v>
       </c>
       <c r="L23" t="n">
-        <v>1248.737035753497</v>
+        <v>1553.174987179355</v>
       </c>
       <c r="M23" t="n">
-        <v>2225.175951394315</v>
+        <v>2084.595504662269</v>
       </c>
       <c r="N23" t="n">
-        <v>3202.782671979845</v>
+        <v>2629.228770079935</v>
       </c>
       <c r="O23" t="n">
-        <v>4080.721338735275</v>
+        <v>3486.889521217948</v>
       </c>
       <c r="P23" t="n">
-        <v>4473.766574984809</v>
+        <v>4198.51547855725</v>
       </c>
       <c r="Q23" t="n">
-        <v>4720.754432041042</v>
+        <v>4655.695176366788</v>
       </c>
       <c r="R23" t="n">
         <v>4779.016168104373</v>
@@ -6054,7 +6054,7 @@
         <v>478.0551081790242</v>
       </c>
       <c r="F24" t="n">
-        <v>331.5205502059092</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G24" t="n">
         <v>195.1508857646348</v>
@@ -6066,19 +6066,19 @@
         <v>95.58032336208746</v>
       </c>
       <c r="J24" t="n">
-        <v>188.649754503842</v>
+        <v>188.6497545038421</v>
       </c>
       <c r="K24" t="n">
-        <v>425.8750609309151</v>
+        <v>425.8750609309143</v>
       </c>
       <c r="L24" t="n">
-        <v>791.1763019983991</v>
+        <v>791.1763019983985</v>
       </c>
       <c r="M24" t="n">
         <v>1236.822488350012</v>
       </c>
       <c r="N24" t="n">
-        <v>1708.672248108487</v>
+        <v>1708.672248108486</v>
       </c>
       <c r="O24" t="n">
         <v>2118.102799755743</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>730.2545791767274</v>
+        <v>476.2492890192655</v>
       </c>
       <c r="C25" t="n">
-        <v>561.3183962488205</v>
+        <v>390.3833644423909</v>
       </c>
       <c r="D25" t="n">
-        <v>411.2017568364848</v>
+        <v>390.3833644423909</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2886632540917</v>
+        <v>242.4702708599978</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2886632540917</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="G25" t="n">
         <v>95.58032336208746</v>
@@ -6148,13 +6148,13 @@
         <v>140.3216175627468</v>
       </c>
       <c r="K25" t="n">
-        <v>343.6821446305109</v>
+        <v>343.682144630511</v>
       </c>
       <c r="L25" t="n">
-        <v>659.440039301252</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M25" t="n">
-        <v>1002.751589802364</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N25" t="n">
         <v>1343.334575393459</v>
@@ -6163,7 +6163,7 @@
         <v>1641.901792025959</v>
       </c>
       <c r="P25" t="n">
-        <v>1873.856942706698</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q25" t="n">
         <v>1951.015585704211</v>
@@ -6172,25 +6172,25 @@
         <v>1951.015585704211</v>
       </c>
       <c r="S25" t="n">
-        <v>1944.928496849413</v>
+        <v>1759.233794600962</v>
       </c>
       <c r="T25" t="n">
-        <v>1723.138367461122</v>
+        <v>1537.443665212671</v>
       </c>
       <c r="U25" t="n">
-        <v>1723.138367461122</v>
+        <v>1248.34049816013</v>
       </c>
       <c r="V25" t="n">
-        <v>1468.453879255236</v>
+        <v>993.6560099542434</v>
       </c>
       <c r="W25" t="n">
-        <v>1179.036709218275</v>
+        <v>704.2388399172828</v>
       </c>
       <c r="X25" t="n">
-        <v>951.0471583202575</v>
+        <v>476.2492890192655</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.2545791767274</v>
+        <v>476.2492890192655</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6221,55 +6221,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.7429179653792</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6412,22 +6412,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1509.973093725643</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1306.173512837166</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1078.183961939149</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>857.3913827956189</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839418</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839464</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839486</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839509</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839509</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839509</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839509</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953309</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927038</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892253</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104706</v>
+        <v>1895.267212871568</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931532</v>
+        <v>1895.267212871568</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437384</v>
+        <v>1673.500597441094</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563028</v>
+        <v>1673.500597441094</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357141</v>
+        <v>1673.500597441094</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201807</v>
+        <v>1384.083427404133</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221635</v>
+        <v>1156.093876506116</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786336</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6713,37 +6713,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390116</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932535</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160455</v>
+        <v>244.2046325160457</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
         <v>800.7468040499225</v>
@@ -6895,13 +6895,13 @@
         <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X34" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7017,49 +7017,49 @@
         <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932535</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160457</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819769</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,7 +7096,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499225</v>
@@ -7120,7 +7120,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7129,16 +7129,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X37" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277722</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.56914656307</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.92599384683</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518753</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577534</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906987</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353932</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7473,43 +7473,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232022</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215043</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416709</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774086</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430889</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932521</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490192</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499216</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860148</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032967</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719033</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123954</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829555</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604455</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122054</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195771</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937958</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899127</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036705</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807097</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7731,46 +7731,46 @@
         <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
         <v>564.3616113774093</v>
@@ -7831,7 +7831,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,16 +8693,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3174382148491</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>203.1317046018808</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.01393642657941</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>303.6626695232683</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>360.3174382148502</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>10.12574714858435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602909904</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>185.728945494897</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>205.414655356429</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5463950602909904</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>389.7842493693611</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>148.8679122071903</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5463950602909904</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>185.728945494897</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3174382148491</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5463950602909904</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476846</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225793136</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400235</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>252.0062891627771</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>21.10243696020769</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.57031215921586</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5236753160486</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1815056576469</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3246406336855</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>111.3180659793427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.4454903160596</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.6761994288924</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>184.2360734826583</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.6196552033119</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>165.8555958322713</v>
       </c>
       <c r="D16" t="n">
-        <v>147.5526784580518</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.0312564930842</v>
       </c>
       <c r="H16" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671985</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H19" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.51626366671985</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>172.7928475920499</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2121353820159</v>
+        <v>87.32839854598942</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>31.42813341210429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0312564930842</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2121353820159</v>
+        <v>84.67260366477785</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>82.23955576752205</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H25" t="n">
         <v>144.803454668018</v>
       </c>
       <c r="I25" t="n">
-        <v>96.51626366671985</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.17712508496183</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S25" t="n">
-        <v>183.837755225967</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>84.76141325699894</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.025808259028</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143206</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983786</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.9321526700471</v>
+        <v>28.46666196924296</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.673861546209082e-13</v>
+        <v>-9.257039707010313e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.094235813070554e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1206693.008194688</v>
+        <v>1177966.783285191</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1178420.432881525</v>
+        <v>1188750.807512946</v>
       </c>
     </row>
     <row r="6">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216719.2892491519</v>
+        <v>211363.5524016187</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>213000.4714344098</v>
+        <v>218356.2082819431</v>
       </c>
       <c r="F2" t="n">
         <v>218356.2082819431</v>
@@ -26332,7 +26332,7 @@
         <v>218356.2082819431</v>
       </c>
       <c r="I2" t="n">
-        <v>218356.208281943</v>
+        <v>218356.2082819431</v>
       </c>
       <c r="J2" t="n">
         <v>218394.9827878408</v>
@@ -26341,7 +26341,7 @@
         <v>218394.9827878408</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>505637.9398330514</v>
+        <v>725022.0883529596</v>
       </c>
       <c r="F3" t="n">
-        <v>215845.7253418506</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178595.2595245358</v>
+        <v>178595.2595245357</v>
       </c>
       <c r="K3" t="n">
-        <v>1.762145984685048e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487387</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>129702.4007695443</v>
+        <v>129702.4007695442</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.664679075474851e-09</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164529.5676576517</v>
+        <v>153413.6467195451</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36740.56312572512</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="F4" t="n">
-        <v>18359.70425226885</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="G4" t="n">
-        <v>18359.70425226888</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="H4" t="n">
-        <v>18359.70425226886</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="I4" t="n">
-        <v>18359.70425226886</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231919001</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
+        <v>33605.65329740899</v>
+      </c>
+      <c r="M4" t="n">
         <v>33605.65329740898</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740901</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740915</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>90379.41771516021</v>
+        <v>96332.31363132432</v>
       </c>
       <c r="F5" t="n">
         <v>96332.31363132432</v>
@@ -26491,7 +26491,7 @@
         <v>96332.31363132432</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-620637.2356864536</v>
+        <v>-615008.1691805264</v>
       </c>
       <c r="C6" t="n">
-        <v>-40421.27820785943</v>
+        <v>-40421.27820785948</v>
       </c>
       <c r="D6" t="n">
-        <v>-40421.27820785943</v>
+        <v>-40421.27820785949</v>
       </c>
       <c r="E6" t="n">
-        <v>-419757.4492395269</v>
+        <v>-621425.4459403437</v>
       </c>
       <c r="F6" t="n">
-        <v>-112181.5349435007</v>
+        <v>103596.642412616</v>
       </c>
       <c r="G6" t="n">
-        <v>103664.1903983498</v>
+        <v>103596.642412616</v>
       </c>
       <c r="H6" t="n">
-        <v>103664.1903983499</v>
+        <v>103596.642412616</v>
       </c>
       <c r="I6" t="n">
-        <v>103664.1903983498</v>
+        <v>103596.642412616</v>
       </c>
       <c r="J6" t="n">
-        <v>-74732.28730959861</v>
+        <v>-74799.4827998243</v>
       </c>
       <c r="K6" t="n">
-        <v>103862.9722149369</v>
+        <v>103795.7767247114</v>
       </c>
       <c r="L6" t="n">
-        <v>54268.0531062932</v>
+        <v>54268.05310629297</v>
       </c>
       <c r="M6" t="n">
-        <v>-37854.23836837735</v>
+        <v>-37854.23836837722</v>
       </c>
       <c r="N6" t="n">
-        <v>91848.16240116693</v>
+        <v>91848.16240116692</v>
       </c>
       <c r="O6" t="n">
-        <v>91848.16240116794</v>
+        <v>91848.16240116692</v>
       </c>
       <c r="P6" t="n">
-        <v>91848.16240116523</v>
+        <v>91848.16240116677</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859276</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>813.6867871547582</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
-        <v>1086.755407162286</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="G3" t="n">
-        <v>1086.755407162286</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="H3" t="n">
-        <v>1086.755407162286</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="I3" t="n">
-        <v>1086.755407162286</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.754042026093</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859234</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>435.9431229376716</v>
+        <v>709.0117429451999</v>
       </c>
       <c r="F3" t="n">
-        <v>273.0686200075282</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.021293431011827</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.025671488416477e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.4667692715375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715378</v>
+        <v>520.4667692715375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.4667692715375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>126.7427716394548</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>155.9669184196674</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>30.36167714588638</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>65.69171697521732</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>195.6848239326925</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>81.63609966997387</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.0061818843763</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>11.42376369151691</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>237.8463168987949</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>302.5619617589148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>91.35942019219894</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.271102661928674</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H11" t="n">
-        <v>33.50018013647704</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I11" t="n">
-        <v>126.1091853740053</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>277.630749552869</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K11" t="n">
-        <v>416.0965252323099</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L11" t="n">
-        <v>516.2045333223097</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M11" t="n">
-        <v>574.3770052863837</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N11" t="n">
-        <v>583.6710257245886</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O11" t="n">
-        <v>551.1439986300353</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P11" t="n">
-        <v>470.3886516636711</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q11" t="n">
-        <v>353.2422875833503</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R11" t="n">
-        <v>205.4784025873772</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>74.54025190869973</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T11" t="n">
-        <v>14.31925190259278</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2616882129542938</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.750194221427216</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>16.90319155957338</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I12" t="n">
-        <v>60.25887999212126</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J12" t="n">
-        <v>165.3549724726476</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>282.6179853082711</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L12" t="n">
-        <v>380.0147584726067</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M12" t="n">
-        <v>443.4592989993432</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N12" t="n">
-        <v>455.1963470895284</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O12" t="n">
-        <v>416.4157277621148</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P12" t="n">
-        <v>334.2103333881497</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.4107571070952</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
-        <v>108.6655675373845</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>32.50909003396603</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>7.054510918822855</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1151443566728432</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.46730404241022</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>13.04566684979269</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>44.1258342935728</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>103.7383957984025</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>170.4740514727509</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>218.1480937234249</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>230.006578211631</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>224.5375358717386</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>207.3967568308555</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>177.4637543656869</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.8667048603685</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>65.97532539782677</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S13" t="n">
-        <v>25.57110772091264</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T13" t="n">
-        <v>6.269389999389118</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08003476594964844</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368865958441349</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H14" t="n">
-        <v>44.74264849688748</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I14" t="n">
         <v>168.4307048628103</v>
       </c>
       <c r="J14" t="n">
-        <v>370.8020371402618</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610842</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L14" t="n">
-        <v>689.4398147367339</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251651</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N14" t="n">
-        <v>779.5476751295867</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553355</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063145</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696336</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R14" t="n">
         <v>274.4357762619417</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798235</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T14" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,31 +32069,31 @@
         <v>2.337549366349069</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237127</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701839</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J15" t="n">
         <v>220.8471530724794</v>
       </c>
       <c r="K15" t="n">
-        <v>377.462960617867</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732924</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M15" t="n">
-        <v>592.281696903446</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312871</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O15" t="n">
-        <v>556.1624582295524</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3694048776569</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q15" t="n">
         <v>298.3861261325584</v>
@@ -32102,13 +32102,13 @@
         <v>145.133108903673</v>
       </c>
       <c r="S15" t="n">
-        <v>43.41895423898378</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T15" t="n">
-        <v>9.42196433190699</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>17.42371783942159</v>
       </c>
       <c r="I16" t="n">
-        <v>58.93421126053843</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J16" t="n">
         <v>138.5524065819853</v>
@@ -32169,22 +32169,22 @@
         <v>299.8910453895538</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894956</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0195727358533</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q16" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R16" t="n">
-        <v>88.11626629220765</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475577</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873351</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U16" t="n">
         <v>0.1068939744749791</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.368865958441349</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H17" t="n">
-        <v>44.74264849688748</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I17" t="n">
         <v>168.4307048628103</v>
       </c>
       <c r="J17" t="n">
-        <v>370.8020371402618</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K17" t="n">
-        <v>555.7361331610842</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L17" t="n">
-        <v>689.4398147367339</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M17" t="n">
-        <v>767.1346347251651</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N17" t="n">
-        <v>779.5476751295867</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O17" t="n">
-        <v>736.1047642553355</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P17" t="n">
-        <v>628.2483859063145</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.7883737696336</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R17" t="n">
         <v>274.4357762619417</v>
       </c>
       <c r="S17" t="n">
-        <v>99.55553302798235</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T17" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32306,31 @@
         <v>2.337549366349069</v>
       </c>
       <c r="H18" t="n">
-        <v>22.57580572237127</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I18" t="n">
-        <v>80.48141458701839</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J18" t="n">
         <v>220.8471530724794</v>
       </c>
       <c r="K18" t="n">
-        <v>377.462960617867</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L18" t="n">
-        <v>507.5455323732924</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M18" t="n">
-        <v>592.281696903446</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N18" t="n">
-        <v>607.9576310312871</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O18" t="n">
-        <v>556.1624582295524</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P18" t="n">
-        <v>446.3694048776569</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q18" t="n">
         <v>298.3861261325584</v>
@@ -32339,13 +32339,13 @@
         <v>145.133108903673</v>
       </c>
       <c r="S18" t="n">
-        <v>43.41895423898378</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T18" t="n">
-        <v>9.42196433190699</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>17.42371783942159</v>
       </c>
       <c r="I19" t="n">
-        <v>58.93421126053843</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J19" t="n">
         <v>138.5524065819853</v>
@@ -32406,22 +32406,22 @@
         <v>299.8910453895538</v>
       </c>
       <c r="O19" t="n">
-        <v>276.9979191894956</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P19" t="n">
-        <v>237.0195727358533</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q19" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R19" t="n">
-        <v>88.11626629220765</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S19" t="n">
-        <v>34.15262484475577</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T19" t="n">
-        <v>8.373361333873351</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U19" t="n">
         <v>0.1068939744749791</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.368865958441349</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H20" t="n">
-        <v>44.74264849688748</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I20" t="n">
         <v>168.4307048628103</v>
       </c>
       <c r="J20" t="n">
-        <v>370.8020371402618</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K20" t="n">
-        <v>555.7361331610842</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L20" t="n">
-        <v>689.4398147367339</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M20" t="n">
-        <v>767.1346347251651</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N20" t="n">
-        <v>779.5476751295867</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O20" t="n">
-        <v>736.1047642553355</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P20" t="n">
-        <v>628.2483859063145</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.7883737696336</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R20" t="n">
         <v>274.4357762619417</v>
       </c>
       <c r="S20" t="n">
-        <v>99.55553302798235</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T20" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32543,31 @@
         <v>2.337549366349069</v>
       </c>
       <c r="H21" t="n">
-        <v>22.57580572237127</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I21" t="n">
-        <v>80.48141458701839</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J21" t="n">
         <v>220.8471530724794</v>
       </c>
       <c r="K21" t="n">
-        <v>377.462960617867</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L21" t="n">
-        <v>507.5455323732924</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M21" t="n">
-        <v>592.281696903446</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N21" t="n">
-        <v>607.9576310312871</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O21" t="n">
-        <v>556.1624582295524</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3694048776569</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q21" t="n">
         <v>298.3861261325584</v>
@@ -32576,13 +32576,13 @@
         <v>145.133108903673</v>
       </c>
       <c r="S21" t="n">
-        <v>43.41895423898378</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T21" t="n">
-        <v>9.42196433190699</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>17.42371783942159</v>
       </c>
       <c r="I22" t="n">
-        <v>58.93421126053843</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J22" t="n">
         <v>138.5524065819853</v>
@@ -32643,22 +32643,22 @@
         <v>299.8910453895538</v>
       </c>
       <c r="O22" t="n">
-        <v>276.9979191894956</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P22" t="n">
-        <v>237.0195727358533</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q22" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R22" t="n">
-        <v>88.11626629220765</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S22" t="n">
-        <v>34.15262484475577</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T22" t="n">
-        <v>8.373361333873351</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U22" t="n">
         <v>0.1068939744749791</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.368865958441349</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H23" t="n">
-        <v>44.74264849688748</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I23" t="n">
         <v>168.4307048628103</v>
       </c>
       <c r="J23" t="n">
-        <v>370.8020371402618</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K23" t="n">
-        <v>555.7361331610842</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L23" t="n">
-        <v>689.4398147367339</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M23" t="n">
-        <v>767.1346347251651</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N23" t="n">
-        <v>779.5476751295867</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O23" t="n">
-        <v>736.1047642553355</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P23" t="n">
-        <v>628.2483859063145</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.7883737696336</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R23" t="n">
         <v>274.4357762619417</v>
       </c>
       <c r="S23" t="n">
-        <v>99.55553302798235</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T23" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,31 +32780,31 @@
         <v>2.337549366349069</v>
       </c>
       <c r="H24" t="n">
-        <v>22.57580572237127</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I24" t="n">
-        <v>80.48141458701839</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J24" t="n">
         <v>220.8471530724794</v>
       </c>
       <c r="K24" t="n">
-        <v>377.462960617867</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L24" t="n">
-        <v>507.5455323732924</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M24" t="n">
-        <v>592.281696903446</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N24" t="n">
-        <v>607.9576310312871</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O24" t="n">
-        <v>556.1624582295524</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P24" t="n">
-        <v>446.3694048776569</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q24" t="n">
         <v>298.3861261325584</v>
@@ -32813,13 +32813,13 @@
         <v>145.133108903673</v>
       </c>
       <c r="S24" t="n">
-        <v>43.41895423898378</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T24" t="n">
-        <v>9.42196433190699</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>17.42371783942159</v>
       </c>
       <c r="I25" t="n">
-        <v>58.93421126053843</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J25" t="n">
         <v>138.5524065819853</v>
@@ -32880,22 +32880,22 @@
         <v>299.8910453895538</v>
       </c>
       <c r="O25" t="n">
-        <v>276.9979191894956</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P25" t="n">
-        <v>237.0195727358533</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q25" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R25" t="n">
-        <v>88.11626629220765</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S25" t="n">
-        <v>34.15262484475577</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T25" t="n">
-        <v>8.373361333873351</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U25" t="n">
         <v>0.1068939744749791</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974796</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003798</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678168</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837991</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970239</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098814</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>265.6814601982565</v>
+        <v>358.8527477856494</v>
       </c>
       <c r="K11" t="n">
-        <v>520.1520867584941</v>
+        <v>659.7916946872685</v>
       </c>
       <c r="L11" t="n">
-        <v>698.0993329027729</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M11" t="n">
-        <v>793.5443055519435</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N11" t="n">
-        <v>791.6048865399819</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O11" t="n">
-        <v>701.8459684710939</v>
+        <v>866.323991048498</v>
       </c>
       <c r="P11" t="n">
-        <v>560.9543640798842</v>
+        <v>718.8140983225278</v>
       </c>
       <c r="Q11" t="n">
-        <v>343.2515883688055</v>
+        <v>461.7976745550889</v>
       </c>
       <c r="R11" t="n">
-        <v>55.60928464622756</v>
+        <v>124.566658320792</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>38.51734580598094</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K12" t="n">
-        <v>409.2417833464907</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L12" t="n">
-        <v>444.5920832946134</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M12" t="n">
-        <v>301.3252650773248</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N12" t="n">
-        <v>803.1970093497487</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O12" t="n">
-        <v>273.8194833176703</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P12" t="n">
-        <v>200.2359259738195</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.42898302107363</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.37921568172975</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K13" t="n">
-        <v>148.2045596468681</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>245.738118983741</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>269.5904551734716</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
-        <v>268.6697082509672</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O13" t="n">
-        <v>231.9818847448952</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>174.7423136305804</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.7046616086741</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.8527477856493</v>
+        <v>358.8527477856494</v>
       </c>
       <c r="K14" t="n">
-        <v>659.7916946872684</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L14" t="n">
-        <v>453.6733997667466</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M14" t="n">
-        <v>536.7884014978924</v>
+        <v>840.4510710211608</v>
       </c>
       <c r="N14" t="n">
-        <v>550.1346115329957</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O14" t="n">
-        <v>866.3239910484989</v>
+        <v>886.8067340963943</v>
       </c>
       <c r="P14" t="n">
-        <v>718.8140983225276</v>
+        <v>718.8140983225278</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.7976745550888</v>
+        <v>461.7976745550889</v>
       </c>
       <c r="R14" t="n">
         <v>124.566658320792</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581272</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K15" t="n">
         <v>239.6215216435081</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934182</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M15" t="n">
-        <v>450.1476629814277</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N15" t="n">
-        <v>476.6159189479538</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851079</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633267</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q15" t="n">
         <v>158.4043520465369</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531248</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058223</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L16" t="n">
-        <v>318.9473683542839</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M16" t="n">
         <v>346.7793439405177</v>
@@ -35817,13 +35817,13 @@
         <v>344.0232177687824</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035353</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007454</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.93802322981087</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.7561326135755</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K17" t="n">
-        <v>335.6462821161037</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L17" t="n">
-        <v>639.4023452616436</v>
+        <v>871.3346143171972</v>
       </c>
       <c r="M17" t="n">
-        <v>986.3019349907249</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N17" t="n">
-        <v>987.4815359449799</v>
+        <v>755.5492668894249</v>
       </c>
       <c r="O17" t="n">
-        <v>886.8067340963941</v>
+        <v>886.8067340963943</v>
       </c>
       <c r="P17" t="n">
-        <v>397.015390151045</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.4826838951841</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R17" t="n">
-        <v>58.85023844780955</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.00952640581272</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K18" t="n">
-        <v>239.621521643508</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L18" t="n">
-        <v>368.9911525934182</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M18" t="n">
-        <v>450.1476629814277</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N18" t="n">
-        <v>476.6159189479538</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5662137851079</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P18" t="n">
         <v>312.3949974633268</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19322646531248</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K19" t="n">
-        <v>205.4146738058223</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L19" t="n">
-        <v>318.9473683542839</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M19" t="n">
-        <v>346.7793439405177</v>
+        <v>346.7793439405164</v>
       </c>
       <c r="N19" t="n">
         <v>344.0232177687824</v>
       </c>
       <c r="O19" t="n">
-        <v>301.5830471035353</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P19" t="n">
         <v>234.2981320007468</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.93802322981087</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7561326135755</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K20" t="n">
-        <v>659.7916946872684</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L20" t="n">
-        <v>871.3346143171971</v>
+        <v>871.3346143171972</v>
       </c>
       <c r="M20" t="n">
-        <v>926.5726508672535</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N20" t="n">
-        <v>550.1346115329957</v>
+        <v>987.4815359449801</v>
       </c>
       <c r="O20" t="n">
-        <v>506.0065528336487</v>
+        <v>654.8744650408393</v>
       </c>
       <c r="P20" t="n">
-        <v>718.8140983225276</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q20" t="n">
-        <v>249.4826838951841</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R20" t="n">
-        <v>58.85023844780955</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.00952640581272</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K21" t="n">
-        <v>239.621521643508</v>
+        <v>239.6215216435073</v>
       </c>
       <c r="L21" t="n">
-        <v>368.9911525934182</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M21" t="n">
-        <v>450.1476629814277</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N21" t="n">
-        <v>476.6159189479538</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O21" t="n">
-        <v>413.5662137851079</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P21" t="n">
-        <v>312.3949974633267</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q21" t="n">
         <v>158.4043520465369</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19322646531248</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K22" t="n">
-        <v>205.4146738058223</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L22" t="n">
-        <v>318.9473683542839</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M22" t="n">
         <v>346.7793439405177</v>
@@ -36291,13 +36291,13 @@
         <v>344.0232177687824</v>
       </c>
       <c r="O22" t="n">
-        <v>301.5830471035353</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P22" t="n">
         <v>234.2981320007468</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.93802322981087</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7561326135755</v>
+        <v>358.8527477856494</v>
       </c>
       <c r="K23" t="n">
-        <v>335.6462821161037</v>
+        <v>659.7916946872685</v>
       </c>
       <c r="L23" t="n">
-        <v>639.4023452616436</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M23" t="n">
-        <v>986.3019349907249</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N23" t="n">
-        <v>987.4815359449799</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O23" t="n">
-        <v>886.8067340963941</v>
+        <v>866.323991048498</v>
       </c>
       <c r="P23" t="n">
-        <v>397.015390151045</v>
+        <v>718.8140983225278</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.4826838951841</v>
+        <v>461.7976745550889</v>
       </c>
       <c r="R23" t="n">
-        <v>58.85023844780955</v>
+        <v>124.566658320792</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.00952640581272</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K24" t="n">
-        <v>239.6215216435081</v>
+        <v>239.6215216435073</v>
       </c>
       <c r="L24" t="n">
-        <v>368.9911525934182</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M24" t="n">
-        <v>450.1476629814277</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N24" t="n">
-        <v>476.6159189479538</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O24" t="n">
-        <v>413.5662137851079</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P24" t="n">
-        <v>312.3949974633267</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q24" t="n">
         <v>158.4043520465369</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19322646531248</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K25" t="n">
-        <v>205.4146738058223</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L25" t="n">
-        <v>318.9473683542839</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M25" t="n">
         <v>346.7793439405177</v>
@@ -36528,13 +36528,13 @@
         <v>344.0232177687824</v>
       </c>
       <c r="O25" t="n">
-        <v>301.5830471035353</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P25" t="n">
         <v>234.2981320007468</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.93802322981087</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306645</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443198</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934841</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.35313022264</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451107</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789387</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>883.6236994779111</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407856</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.336699126564</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>485.208936650262</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302252</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129099</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.853182150963</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908531</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636232</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222421</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597665</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004657</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887903</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.608516012076</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861322</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.328266841232</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637027</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282428</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
